--- a/data/Physchem_2023.xlsx
+++ b/data/Physchem_2023.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECHEVERRIA\R_git\Thesis_Gasera\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6672BFC2-F9F0-42BD-BBEC-6A8C50411359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9AAD7-707C-4071-82E8-2F3E6A4CC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7950" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E2334C-7AB8-4C2B-83D4-18573E9CCB7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8E2334C-7AB8-4C2B-83D4-18573E9CCB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$466</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -187,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +201,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -237,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,8 +614,8 @@
   <dimension ref="A1:N466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B292" sqref="B292"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5715,8 +5727,8 @@
       <c r="J128" s="2">
         <v>67.5</v>
       </c>
-      <c r="K128" s="2">
-        <v>126</v>
+      <c r="K128" s="11">
+        <v>12.6</v>
       </c>
       <c r="L128" s="2">
         <v>0.86</v>
@@ -8060,7 +8072,7 @@
       <c r="I189" s="2">
         <v>25</v>
       </c>
-      <c r="J189" s="2">
+      <c r="J189" s="11">
         <v>324</v>
       </c>
       <c r="K189" s="2">
@@ -8102,7 +8114,7 @@
       <c r="I190" s="2">
         <v>26</v>
       </c>
-      <c r="J190" s="2">
+      <c r="J190" s="11">
         <v>325</v>
       </c>
       <c r="K190" s="2">
@@ -8312,7 +8324,7 @@
       <c r="I195" s="2">
         <v>24.8</v>
       </c>
-      <c r="J195" s="2">
+      <c r="J195" s="11">
         <v>250</v>
       </c>
       <c r="K195" s="2">
@@ -10061,12 +10073,9 @@
         <v>6.6</v>
       </c>
       <c r="H242" s="2">
-        <v>6.6</v>
+        <v>-900.9</v>
       </c>
       <c r="I242" s="2">
-        <v>-900.9</v>
-      </c>
-      <c r="J242" s="2">
         <v>28.1</v>
       </c>
       <c r="K242" s="2">
@@ -10103,12 +10112,9 @@
         <v>7</v>
       </c>
       <c r="H243" s="2">
-        <v>7</v>
+        <v>-317.8</v>
       </c>
       <c r="I243" s="2">
-        <v>-317.8</v>
-      </c>
-      <c r="J243" s="2">
         <v>28.4</v>
       </c>
       <c r="K243" s="2">
@@ -10145,12 +10151,9 @@
         <v>6.8</v>
       </c>
       <c r="H244" s="2">
-        <v>6.8</v>
+        <v>-317</v>
       </c>
       <c r="I244" s="2">
-        <v>-317</v>
-      </c>
-      <c r="J244" s="2">
         <v>27.5</v>
       </c>
       <c r="K244" s="2">
@@ -10187,12 +10190,9 @@
         <v>7.1</v>
       </c>
       <c r="H245" s="2">
-        <v>7.1</v>
+        <v>-267.8</v>
       </c>
       <c r="I245" s="2">
-        <v>-267.8</v>
-      </c>
-      <c r="J245" s="2">
         <v>28.3</v>
       </c>
       <c r="K245" s="2">
@@ -10229,12 +10229,9 @@
         <v>7.6</v>
       </c>
       <c r="H246" s="2">
-        <v>7</v>
+        <v>-279.5</v>
       </c>
       <c r="I246" s="2">
-        <v>-279.5</v>
-      </c>
-      <c r="J246" s="2">
         <v>27.6</v>
       </c>
       <c r="K246" s="2">
@@ -10271,12 +10268,9 @@
         <v>7.1</v>
       </c>
       <c r="H247" s="2">
-        <v>7.1</v>
+        <v>-322.89999999999998</v>
       </c>
       <c r="I247" s="2">
-        <v>-322.89999999999998</v>
-      </c>
-      <c r="J247" s="2">
         <v>27.9</v>
       </c>
       <c r="K247" s="2">
@@ -10313,12 +10307,9 @@
         <v>7</v>
       </c>
       <c r="H248" s="2">
-        <v>7</v>
+        <v>-332.5</v>
       </c>
       <c r="I248" s="2">
-        <v>-332.5</v>
-      </c>
-      <c r="J248" s="2">
         <v>27.2</v>
       </c>
       <c r="K248" s="2">
@@ -10355,12 +10346,9 @@
         <v>7</v>
       </c>
       <c r="H249" s="2">
-        <v>7</v>
+        <v>-304.2</v>
       </c>
       <c r="I249" s="2">
-        <v>-304.2</v>
-      </c>
-      <c r="J249" s="2">
         <v>27.9</v>
       </c>
       <c r="K249" s="2">
@@ -10397,12 +10385,9 @@
         <v>6.9</v>
       </c>
       <c r="H250" s="2">
-        <v>6.9</v>
+        <v>-293</v>
       </c>
       <c r="I250" s="2">
-        <v>-293</v>
-      </c>
-      <c r="J250" s="2">
         <v>28.5</v>
       </c>
       <c r="K250" s="2">
@@ -10439,12 +10424,9 @@
         <v>7</v>
       </c>
       <c r="H251" s="2">
-        <v>7</v>
+        <v>-90.1</v>
       </c>
       <c r="I251" s="2">
-        <v>-90.1</v>
-      </c>
-      <c r="J251" s="2">
         <v>28.7</v>
       </c>
       <c r="K251" s="2">
@@ -10481,12 +10463,9 @@
         <v>7</v>
       </c>
       <c r="H252" s="2">
-        <v>7</v>
+        <v>-243.1</v>
       </c>
       <c r="I252" s="2">
-        <v>-243.1</v>
-      </c>
-      <c r="J252" s="2">
         <v>27.7</v>
       </c>
       <c r="K252" s="2">
@@ -10523,12 +10502,9 @@
         <v>7.1</v>
       </c>
       <c r="H253" s="2">
-        <v>7.1</v>
+        <v>-244</v>
       </c>
       <c r="I253" s="2">
-        <v>-244</v>
-      </c>
-      <c r="J253" s="2">
         <v>27.9</v>
       </c>
       <c r="K253" s="2">
@@ -10565,12 +10541,9 @@
         <v>7</v>
       </c>
       <c r="H254" s="2">
-        <v>7</v>
+        <v>-237.4</v>
       </c>
       <c r="I254" s="2">
-        <v>-237.4</v>
-      </c>
-      <c r="J254" s="2">
         <v>27.5</v>
       </c>
       <c r="K254" s="2">
@@ -10607,12 +10580,9 @@
         <v>7.2</v>
       </c>
       <c r="H255" s="2">
-        <v>7.2</v>
+        <v>-128.4</v>
       </c>
       <c r="I255" s="2">
-        <v>-128.4</v>
-      </c>
-      <c r="J255" s="2">
         <v>28.1</v>
       </c>
       <c r="K255" s="2">
@@ -10649,12 +10619,9 @@
         <v>7.1</v>
       </c>
       <c r="H256" s="4">
-        <v>7.1</v>
+        <v>-226.4</v>
       </c>
       <c r="I256" s="4">
-        <v>-226.4</v>
-      </c>
-      <c r="J256" s="4">
         <v>27.6</v>
       </c>
       <c r="K256" s="4">
@@ -16260,7 +16227,7 @@
         <v>19</v>
       </c>
       <c r="G423" s="2">
-        <v>-6.9</v>
+        <v>6.9</v>
       </c>
       <c r="H423" s="2">
         <v>-161</v>

--- a/data/Physchem_2023.xlsx
+++ b/data/Physchem_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECHEVERRIA\R_git\Thesis_Gasera\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9AAD7-707C-4071-82E8-2F3E6A4CC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5E667-9DEC-4E58-A585-FD44D2E165AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8E2334C-7AB8-4C2B-83D4-18573E9CCB7C}"/>
   </bookViews>
@@ -614,8 +614,8 @@
   <dimension ref="A1:N466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O250" sqref="O250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10073,10 +10073,13 @@
         <v>6.6</v>
       </c>
       <c r="H242" s="2">
-        <v>-900.9</v>
+        <v>-100.9</v>
       </c>
       <c r="I242" s="2">
         <v>28.1</v>
+      </c>
+      <c r="J242" s="2">
+        <v>87.1</v>
       </c>
       <c r="K242" s="2">
         <v>6.65</v>
@@ -10117,6 +10120,9 @@
       <c r="I243" s="2">
         <v>28.4</v>
       </c>
+      <c r="J243" s="2">
+        <v>58.9</v>
+      </c>
       <c r="K243" s="2">
         <v>4.43</v>
       </c>
@@ -10156,6 +10162,9 @@
       <c r="I244" s="2">
         <v>27.5</v>
       </c>
+      <c r="J244" s="2">
+        <v>72.2</v>
+      </c>
       <c r="K244" s="2">
         <v>8.57</v>
       </c>
@@ -10195,6 +10204,9 @@
       <c r="I245" s="2">
         <v>28.3</v>
       </c>
+      <c r="J245" s="2">
+        <v>49.4</v>
+      </c>
       <c r="K245" s="2">
         <v>3.84</v>
       </c>
@@ -10234,6 +10246,9 @@
       <c r="I246" s="2">
         <v>27.6</v>
       </c>
+      <c r="J246" s="2">
+        <v>75.5</v>
+      </c>
       <c r="K246" s="2">
         <v>5.7</v>
       </c>
@@ -10273,6 +10288,9 @@
       <c r="I247" s="2">
         <v>27.9</v>
       </c>
+      <c r="J247" s="2">
+        <v>154.5</v>
+      </c>
       <c r="K247" s="2">
         <v>10.76</v>
       </c>
@@ -10312,6 +10330,9 @@
       <c r="I248" s="2">
         <v>27.2</v>
       </c>
+      <c r="J248" s="2">
+        <v>27</v>
+      </c>
       <c r="K248" s="2">
         <v>2.14</v>
       </c>
@@ -10351,6 +10372,9 @@
       <c r="I249" s="2">
         <v>27.9</v>
       </c>
+      <c r="J249" s="2">
+        <v>183</v>
+      </c>
       <c r="K249" s="2">
         <v>14.15</v>
       </c>
@@ -10390,6 +10414,9 @@
       <c r="I250" s="2">
         <v>28.5</v>
       </c>
+      <c r="J250" s="2">
+        <v>113.7</v>
+      </c>
       <c r="K250" s="2">
         <v>8.31</v>
       </c>
@@ -10429,6 +10456,9 @@
       <c r="I251" s="2">
         <v>28.7</v>
       </c>
+      <c r="J251" s="2">
+        <v>125.2</v>
+      </c>
       <c r="K251" s="2">
         <v>9.43</v>
       </c>
@@ -10468,6 +10498,9 @@
       <c r="I252" s="2">
         <v>27.7</v>
       </c>
+      <c r="J252" s="2">
+        <v>52.9</v>
+      </c>
       <c r="K252" s="2">
         <v>4.03</v>
       </c>
@@ -10502,10 +10535,13 @@
         <v>7.1</v>
       </c>
       <c r="H253" s="2">
-        <v>-244</v>
+        <v>-249</v>
       </c>
       <c r="I253" s="2">
         <v>27.9</v>
+      </c>
+      <c r="J253" s="2">
+        <v>28.4</v>
       </c>
       <c r="K253" s="2">
         <v>4.49</v>
@@ -10546,6 +10582,9 @@
       <c r="I254" s="2">
         <v>27.5</v>
       </c>
+      <c r="J254" s="2">
+        <v>65.400000000000006</v>
+      </c>
       <c r="K254" s="2">
         <v>4.87</v>
       </c>
@@ -10585,6 +10624,9 @@
       <c r="I255" s="2">
         <v>28.1</v>
       </c>
+      <c r="J255" s="2">
+        <v>100.3</v>
+      </c>
       <c r="K255" s="2">
         <v>7.67</v>
       </c>
@@ -10623,6 +10665,9 @@
       </c>
       <c r="I256" s="4">
         <v>27.6</v>
+      </c>
+      <c r="J256" s="4">
+        <v>53.2</v>
       </c>
       <c r="K256" s="4">
         <v>4.0999999999999996</v>
